--- a/Pop*/AnnotationProgress.xlsx
+++ b/Pop*/AnnotationProgress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>Traditional - Twinkle, twinkle, little star.xml</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>correct syllabification</t>
   </si>
@@ -72,6 +69,27 @@
   </si>
   <si>
     <t>intentional matching melodic rhythms</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Twinkle</t>
+  </si>
+  <si>
+    <t>all words have pronunciation</t>
+  </si>
+  <si>
+    <t>Jude</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Country Roads</t>
+  </si>
+  <si>
+    <t>words assigned to correct verse</t>
   </si>
 </sst>
 </file>
@@ -405,20 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
@@ -427,110 +441,306 @@
     <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
